--- a/DesignDocuments/机制、系统、数值/机制需求2.0.xlsx
+++ b/DesignDocuments/机制、系统、数值/机制需求2.0.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,9 +27,6 @@
     <t>优先级</t>
   </si>
   <si>
-    <t>中</t>
-  </si>
-  <si>
     <t>高</t>
   </si>
   <si>
@@ -46,13 +43,6 @@
   </si>
   <si>
     <t>数值输入</t>
-  </si>
-  <si>
-    <t>破碎延迟（Broken delay）</t>
-  </si>
-  <si>
-    <t>玩家接触平台地面后一定时间内，平台消失
-后期如有破碎动画，则播放破碎动画</t>
   </si>
   <si>
     <t>重生检查点</t>
@@ -66,9 +56,6 @@
   </si>
   <si>
     <t>轴心吊桥</t>
-  </si>
-  <si>
-    <t>旋转力度（rotate force）</t>
   </si>
   <si>
     <t xml:space="preserve">可插刀
@@ -78,9 +65,6 @@
 </t>
   </si>
   <si>
-    <t>拖拽力度（pull force）</t>
-  </si>
-  <si>
     <t>可插刀
 受重力影响
 收刀时受到朝玩家方向的力拖拽</t>
@@ -115,17 +99,48 @@
 初步功能：开启时，特定平台出现：关闭时，该平台消失
 </t>
   </si>
+  <si>
+    <t>玩家接触平台地面后一定时间内，平台消失
+后期如有破碎动画，则播放破碎动画
+固定时间后重新出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破碎延迟（Broken delay）
+重生时间（respawn time）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉起力度（pulling force）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖拽力度（pull force）Damp
+摩擦阻力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -185,15 +200,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1533525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2808772</xdr:rowOff>
+      <xdr:colOff>2190750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>36997</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -216,7 +231,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11496675" y="7772400"/>
+          <a:off x="12849225" y="1714500"/>
           <a:ext cx="1685925" cy="2608747"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -229,15 +244,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3248025</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>666750</xdr:rowOff>
+      <xdr:colOff>2628900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4534079</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2391016</xdr:rowOff>
+      <xdr:colOff>3914954</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2152891</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -260,7 +275,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14049375" y="8239125"/>
+          <a:off x="14973300" y="2181225"/>
           <a:ext cx="1286054" cy="1724266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -274,14 +289,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>251958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>4829175</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>2300531</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>62156</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -318,14 +333,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>399253</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>5495924</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>3203190</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>393315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -627,127 +642,127 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="94.28515625" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" customWidth="1"/>
-    <col min="4" max="4" width="85.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.125" customWidth="1"/>
+    <col min="2" max="2" width="94.25" customWidth="1"/>
+    <col min="3" max="3" width="36.625" customWidth="1"/>
+    <col min="4" max="4" width="85.375" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="199.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="258" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="258" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="262.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="262.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -755,138 +770,138 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -894,8 +909,12 @@
       <c r="E28" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A2:E28">
+    <sortCondition descending="1" ref="E1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>